--- a/non_explainable_medium_disc/train/discriminated_instances.xlsx
+++ b/non_explainable_medium_disc/train/discriminated_instances.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B255"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>161</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>210</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>229</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>230</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>232</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>261</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>265</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>286</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>301</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +644,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>367</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -652,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>382</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>395</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -668,7 +668,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>411</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -676,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>417</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>437</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>439</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -700,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>449</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>462</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>478</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>494</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>498</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
@@ -740,7 +740,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>504</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
@@ -748,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>516</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
@@ -756,7 +756,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>517</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -764,7 +764,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>520</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
@@ -772,7 +772,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>554</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>571</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45">
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>613</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -796,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>614</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47">
@@ -804,7 +804,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>618</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48">
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>627</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
@@ -820,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>634</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50">
@@ -828,7 +828,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>652</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51">
@@ -836,7 +836,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>664</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52">
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>667</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
@@ -852,7 +852,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>674</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54">
@@ -860,7 +860,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>697</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>698</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56">
@@ -876,7 +876,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>699</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>709</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58">
@@ -892,7 +892,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>722</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59">
@@ -900,7 +900,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>731</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60">
@@ -908,7 +908,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>732</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -916,7 +916,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>737</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62">
@@ -924,7 +924,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>761</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
@@ -932,7 +932,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>775</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64">
@@ -940,7 +940,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>779</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65">
@@ -948,7 +948,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>816</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66">
@@ -956,7 +956,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>821</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67">
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>827</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68">
@@ -972,7 +972,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>838</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -980,7 +980,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>845</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
@@ -988,7 +988,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>847</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
@@ -996,7 +996,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>863</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72">
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>894</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>904</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74">
@@ -1020,7 +1020,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>920</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75">
@@ -1028,7 +1028,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>923</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76">
@@ -1036,7 +1036,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>953</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77">
@@ -1044,7 +1044,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>985</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78">
@@ -1052,7 +1052,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>994</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79">
@@ -1060,7 +1060,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1014</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1015</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81">
@@ -1076,7 +1076,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1024</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82">
@@ -1084,7 +1084,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1036</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83">
@@ -1092,7 +1092,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1040</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84">
@@ -1100,7 +1100,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1045</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85">
@@ -1108,7 +1108,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1046</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86">
@@ -1116,7 +1116,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1047</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87">
@@ -1124,7 +1124,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1048</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88">
@@ -1132,7 +1132,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1058</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89">
@@ -1140,7 +1140,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1083</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90">
@@ -1148,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1132</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91">
@@ -1156,7 +1156,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1133</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92">
@@ -1164,7 +1164,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1142</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93">
@@ -1172,7 +1172,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1148</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94">
@@ -1180,7 +1180,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1149</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95">
@@ -1188,7 +1188,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1151</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
@@ -1196,7 +1196,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1153</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97">
@@ -1204,7 +1204,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1220</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98">
@@ -1212,7 +1212,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1269</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99">
@@ -1220,7 +1220,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1284</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100">
@@ -1228,7 +1228,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1297</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101">
@@ -1236,7 +1236,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1317</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102">
@@ -1244,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1339</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103">
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1346</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104">
@@ -1260,7 +1260,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1366</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105">
@@ -1268,7 +1268,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1370</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106">
@@ -1276,7 +1276,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1375</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107">
@@ -1284,7 +1284,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108">
@@ -1292,7 +1292,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109">
@@ -1300,7 +1300,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110">
@@ -1308,7 +1308,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1405</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111">
@@ -1316,7 +1316,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112">
@@ -1324,7 +1324,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113">
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114">
@@ -1340,7 +1340,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115">
@@ -1348,7 +1348,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116">
@@ -1356,7 +1356,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1531</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117">
@@ -1364,7 +1364,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1557</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118">
@@ -1372,7 +1372,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1578</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119">
@@ -1380,7 +1380,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1581</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120">
@@ -1388,7 +1388,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1585</v>
+        <v>494</v>
       </c>
     </row>
     <row r="121">
@@ -1396,7 +1396,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1613</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122">
@@ -1404,7 +1404,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1617</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123">
@@ -1412,7 +1412,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1630</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124">
@@ -1420,7 +1420,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1633</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125">
@@ -1428,7 +1428,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1638</v>
+        <v>520</v>
       </c>
     </row>
     <row r="126">
@@ -1436,7 +1436,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1664</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127">
@@ -1444,7 +1444,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1686</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128">
@@ -1452,7 +1452,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1742</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129">
@@ -1460,7 +1460,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1748</v>
+        <v>549</v>
       </c>
     </row>
     <row r="130">
@@ -1468,7 +1468,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1757</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131">
@@ -1476,7 +1476,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1765</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132">
@@ -1484,7 +1484,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1770</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133">
@@ -1492,7 +1492,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1780</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134">
@@ -1500,7 +1500,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1830</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135">
@@ -1508,7 +1508,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1831</v>
+        <v>618</v>
       </c>
     </row>
     <row r="136">
@@ -1516,7 +1516,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1852</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137">
@@ -1524,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1875</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138">
@@ -1532,7 +1532,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1895</v>
+        <v>634</v>
       </c>
     </row>
     <row r="139">
@@ -1540,7 +1540,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1905</v>
+        <v>635</v>
       </c>
     </row>
     <row r="140">
@@ -1548,7 +1548,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1926</v>
+        <v>639</v>
       </c>
     </row>
     <row r="141">
@@ -1556,7 +1556,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1954</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142">
@@ -1564,7 +1564,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1989</v>
+        <v>673</v>
       </c>
     </row>
     <row r="143">
@@ -1572,7 +1572,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1998</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144">
@@ -1580,7 +1580,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2030</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145">
@@ -1588,7 +1588,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2034</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146">
@@ -1596,7 +1596,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2053</v>
+        <v>709</v>
       </c>
     </row>
     <row r="147">
@@ -1604,7 +1604,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2060</v>
+        <v>722</v>
       </c>
     </row>
     <row r="148">
@@ -1612,7 +1612,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2064</v>
+        <v>731</v>
       </c>
     </row>
     <row r="149">
@@ -1620,7 +1620,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2088</v>
+        <v>737</v>
       </c>
     </row>
     <row r="150">
@@ -1628,7 +1628,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2092</v>
+        <v>774</v>
       </c>
     </row>
     <row r="151">
@@ -1636,7 +1636,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2101</v>
+        <v>775</v>
       </c>
     </row>
     <row r="152">
@@ -1644,7 +1644,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2102</v>
+        <v>782</v>
       </c>
     </row>
     <row r="153">
@@ -1652,7 +1652,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2133</v>
+        <v>821</v>
       </c>
     </row>
     <row r="154">
@@ -1660,7 +1660,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2149</v>
+        <v>822</v>
       </c>
     </row>
     <row r="155">
@@ -1668,7 +1668,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2164</v>
+        <v>827</v>
       </c>
     </row>
     <row r="156">
@@ -1676,7 +1676,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2201</v>
+        <v>838</v>
       </c>
     </row>
     <row r="157">
@@ -1684,7 +1684,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2267</v>
+        <v>845</v>
       </c>
     </row>
     <row r="158">
@@ -1692,7 +1692,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2268</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159">
@@ -1700,7 +1700,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2269</v>
+        <v>851</v>
       </c>
     </row>
     <row r="160">
@@ -1708,7 +1708,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2288</v>
+        <v>863</v>
       </c>
     </row>
     <row r="161">
@@ -1716,7 +1716,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2289</v>
+        <v>875</v>
       </c>
     </row>
     <row r="162">
@@ -1724,7 +1724,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2293</v>
+        <v>878</v>
       </c>
     </row>
     <row r="163">
@@ -1732,7 +1732,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2322</v>
+        <v>894</v>
       </c>
     </row>
     <row r="164">
@@ -1740,7 +1740,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2326</v>
+        <v>895</v>
       </c>
     </row>
     <row r="165">
@@ -1748,7 +1748,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2330</v>
+        <v>914</v>
       </c>
     </row>
     <row r="166">
@@ -1756,7 +1756,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2333</v>
+        <v>918</v>
       </c>
     </row>
     <row r="167">
@@ -1764,7 +1764,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2334</v>
+        <v>920</v>
       </c>
     </row>
     <row r="168">
@@ -1772,7 +1772,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2376</v>
+        <v>923</v>
       </c>
     </row>
     <row r="169">
@@ -1780,7 +1780,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2383</v>
+        <v>934</v>
       </c>
     </row>
     <row r="170">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2388</v>
+        <v>935</v>
       </c>
     </row>
     <row r="171">
@@ -1796,7 +1796,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2399</v>
+        <v>939</v>
       </c>
     </row>
     <row r="172">
@@ -1804,7 +1804,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2411</v>
+        <v>953</v>
       </c>
     </row>
     <row r="173">
@@ -1812,7 +1812,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2447</v>
+        <v>962</v>
       </c>
     </row>
     <row r="174">
@@ -1820,7 +1820,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2473</v>
+        <v>963</v>
       </c>
     </row>
     <row r="175">
@@ -1828,7 +1828,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2494</v>
+        <v>968</v>
       </c>
     </row>
     <row r="176">
@@ -1836,7 +1836,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2497</v>
+        <v>985</v>
       </c>
     </row>
     <row r="177">
@@ -1844,7 +1844,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2523</v>
+        <v>987</v>
       </c>
     </row>
     <row r="178">
@@ -1852,7 +1852,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2528</v>
+        <v>991</v>
       </c>
     </row>
     <row r="179">
@@ -1860,7 +1860,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2545</v>
+        <v>994</v>
       </c>
     </row>
     <row r="180">
@@ -1868,7 +1868,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2546</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="181">
@@ -1876,7 +1876,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2577</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="182">
@@ -1884,7 +1884,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2579</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="183">
@@ -1892,7 +1892,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2595</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="184">
@@ -1900,7 +1900,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2607</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="185">
@@ -1908,7 +1908,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2608</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="186">
@@ -1916,7 +1916,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2634</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="187">
@@ -1924,7 +1924,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2649</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="188">
@@ -1932,7 +1932,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2657</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="189">
@@ -1940,7 +1940,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2694</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="190">
@@ -1948,7 +1948,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2697</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="191">
@@ -1956,7 +1956,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2708</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="192">
@@ -1964,7 +1964,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2712</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="193">
@@ -1972,7 +1972,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2723</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="194">
@@ -1980,7 +1980,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2731</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="195">
@@ -1988,7 +1988,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2742</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="196">
@@ -1996,7 +1996,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2750</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="197">
@@ -2004,7 +2004,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2755</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="198">
@@ -2012,7 +2012,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2758</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="199">
@@ -2020,7 +2020,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2766</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="200">
@@ -2028,7 +2028,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2787</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="201">
@@ -2036,7 +2036,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2788</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="202">
@@ -2044,7 +2044,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2794</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="203">
@@ -2052,7 +2052,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2802</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="204">
@@ -2060,7 +2060,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2804</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="205">
@@ -2068,7 +2068,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2826</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="206">
@@ -2076,7 +2076,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2829</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="207">
@@ -2084,7 +2084,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2854</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="208">
@@ -2092,7 +2092,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2857</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="209">
@@ -2100,7 +2100,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2862</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="210">
@@ -2108,7 +2108,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2865</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="211">
@@ -2116,7 +2116,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2873</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="212">
@@ -2124,7 +2124,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2901</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="213">
@@ -2132,7 +2132,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2940</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="214">
@@ -2140,7 +2140,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2998</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="215">
@@ -2148,7 +2148,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3005</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="216">
@@ -2156,7 +2156,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>3033</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="217">
@@ -2164,7 +2164,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3062</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="218">
@@ -2172,7 +2172,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3066</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="219">
@@ -2180,7 +2180,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3083</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="220">
@@ -2188,7 +2188,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3104</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="221">
@@ -2196,7 +2196,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3107</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="222">
@@ -2204,7 +2204,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>3122</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="223">
@@ -2212,7 +2212,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>3139</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="224">
@@ -2220,7 +2220,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3146</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="225">
@@ -2228,7 +2228,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3147</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="226">
@@ -2236,7 +2236,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3166</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="227">
@@ -2244,7 +2244,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3177</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="228">
@@ -2252,7 +2252,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3181</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="229">
@@ -2260,7 +2260,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3189</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="230">
@@ -2268,7 +2268,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3203</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="231">
@@ -2276,7 +2276,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3208</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="232">
@@ -2284,7 +2284,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3216</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="233">
@@ -2292,7 +2292,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3245</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="234">
@@ -2300,7 +2300,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3259</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="235">
@@ -2308,7 +2308,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3268</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="236">
@@ -2316,7 +2316,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3272</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="237">
@@ -2324,7 +2324,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3277</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="238">
@@ -2332,7 +2332,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3287</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="239">
@@ -2340,7 +2340,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3303</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="240">
@@ -2348,7 +2348,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3306</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="241">
@@ -2356,7 +2356,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3325</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="242">
@@ -2364,7 +2364,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3348</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="243">
@@ -2372,7 +2372,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3360</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="244">
@@ -2380,7 +2380,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3407</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="245">
@@ -2388,7 +2388,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3412</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="246">
@@ -2396,7 +2396,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>3416</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="247">
@@ -2404,7 +2404,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>3424</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="248">
@@ -2412,7 +2412,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>3433</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="249">
@@ -2420,7 +2420,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>3456</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="250">
@@ -2428,7 +2428,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>3458</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="251">
@@ -2436,7 +2436,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>3463</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="252">
@@ -2444,7 +2444,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>3475</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="253">
@@ -2452,7 +2452,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>3485</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="254">
@@ -2460,7 +2460,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>3488</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="255">
@@ -2468,7 +2468,2327 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
         <v>3496</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3497</v>
       </c>
     </row>
   </sheetData>
